--- a/products.xlsx
+++ b/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Speech Sales Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C36ACCD-3EA8-4843-98BA-1D3A54BF24CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA52C856-DA38-458C-9FB3-B5A3507973B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,9 +49,6 @@
     <t xml:space="preserve">Laptop Pro </t>
   </si>
   <si>
-    <t xml:space="preserve">Smartwatch </t>
-  </si>
-  <si>
     <t>UltraPower Pro Laptop – 13th Gen Intel i9, RTX 4070, 32GB DDR5, 1TB SSD, 15.6” 4K display, 12+ hr battery, and pro-grade security in a sleek, durable design.</t>
   </si>
   <si>
@@ -59,6 +56,9 @@
   </si>
   <si>
     <t>SoundFlow X – Wireless earbuds with True HD sound, ANC, Bluetooth 5.2, 24-hr battery, IPX7 water resistance, and ergonomic design for premium comfort and performance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smart watch </t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +509,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>75000</v>
@@ -520,10 +520,10 @@
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>12000</v>
@@ -537,7 +537,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>4000</v>

--- a/products.xlsx
+++ b/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Speech Sales Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA52C856-DA38-458C-9FB3-B5A3507973B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D05061-EEB2-46AE-A968-56384C672001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,16 +49,16 @@
     <t xml:space="preserve">Laptop Pro </t>
   </si>
   <si>
-    <t>UltraPower Pro Laptop – 13th Gen Intel i9, RTX 4070, 32GB DDR5, 1TB SSD, 15.6” 4K display, 12+ hr battery, and pro-grade security in a sleek, durable design.</t>
-  </si>
-  <si>
-    <t>SmartWatch Pro – 1.5" AMOLED display, dual-core power, advanced health tracking, built-in GPS, 7-day battery, 50m water resistance, and premium titanium design.</t>
-  </si>
-  <si>
-    <t>SoundFlow X – Wireless earbuds with True HD sound, ANC, Bluetooth 5.2, 24-hr battery, IPX7 water resistance, and ergonomic design for premium comfort and performance.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Smart watch </t>
+  </si>
+  <si>
+    <t>one of the best laptop you can get right now with high end specs</t>
+  </si>
+  <si>
+    <t>Best watch in market with all your daily tracking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">best anc earbuds with this price point </t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,12 +504,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>75000</v>
@@ -518,12 +518,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>12000</v>
@@ -532,12 +532,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>4000</v>
